--- a/graphics.xlsx
+++ b/graphics.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>График №1</t>
   </si>
@@ -88,13 +87,25 @@
     <t>График №7</t>
   </si>
   <si>
-    <t>Количество итераций в линейном коде / Процент попаданий</t>
-  </si>
-  <si>
     <t>График №8</t>
   </si>
   <si>
     <t>Число групп / Процент попаданий</t>
+  </si>
+  <si>
+    <t>до 1024 сделать</t>
+  </si>
+  <si>
+    <t>длина простр / размер кэша разный</t>
+  </si>
+  <si>
+    <t>Количество инструкций в линейном коде / Процент попаданий</t>
+  </si>
+  <si>
+    <t>добавить длину пространств локальности</t>
+  </si>
+  <si>
+    <t>каждому добавить срез</t>
   </si>
 </sst>
 </file>
@@ -9180,10 +9191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H303"/>
+  <dimension ref="A1:J303"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9196,7 +9207,7 @@
     <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -9214,7 +9225,7 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -9224,7 +9235,7 @@
       <c r="G2" s="25"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9238,7 +9249,7 @@
       <c r="G3" s="25"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>16</v>
       </c>
@@ -9252,7 +9263,7 @@
       <c r="G4" s="25"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>32</v>
       </c>
@@ -9265,8 +9276,11 @@
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>64</v>
       </c>
@@ -9280,7 +9294,7 @@
       <c r="G6" s="25"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>128</v>
       </c>
@@ -9288,13 +9302,15 @@
         <v>85</v>
       </c>
       <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="D7" s="25" t="s">
+        <v>24</v>
+      </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -9304,7 +9320,7 @@
       <c r="G8" s="25"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -9314,7 +9330,7 @@
       <c r="G9" s="25"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -9324,7 +9340,7 @@
       <c r="G10" s="25"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -9334,7 +9350,7 @@
       <c r="G11" s="25"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -9344,7 +9360,7 @@
       <c r="G12" s="25"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -9354,7 +9370,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -9364,7 +9380,7 @@
       <c r="G14" s="25"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -9374,7 +9390,7 @@
       <c r="G15" s="25"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -9548,7 +9564,9 @@
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
+      <c r="F31" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="G31" s="25"/>
       <c r="H31" s="1"/>
     </row>
@@ -10106,7 +10124,9 @@
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
       <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
+      <c r="F78" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="G78" s="25"/>
       <c r="H78" s="1"/>
     </row>
@@ -10290,7 +10310,7 @@
       <c r="G96" s="25"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="25"/>
       <c r="C97" s="25"/>
@@ -10300,7 +10320,7 @@
       <c r="G97" s="25"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="25"/>
       <c r="C98" s="25"/>
@@ -10310,7 +10330,7 @@
       <c r="G98" s="25"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="25"/>
       <c r="C99" s="25"/>
@@ -10320,7 +10340,7 @@
       <c r="G99" s="25"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7"/>
       <c r="B100" s="26"/>
       <c r="C100" s="26"/>
@@ -10330,12 +10350,12 @@
       <c r="G100" s="26"/>
       <c r="H100" s="2"/>
     </row>
-    <row r="101" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C101" s="24"/>
       <c r="D101" s="24"/>
@@ -10344,7 +10364,7 @@
       <c r="G101" s="24"/>
       <c r="H101" s="5"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="25"/>
       <c r="C102" s="25"/>
@@ -10354,7 +10374,7 @@
       <c r="G102" s="25"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="25"/>
       <c r="C103" s="25"/>
@@ -10364,7 +10384,7 @@
       <c r="G103" s="25"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6"/>
       <c r="B104" s="25"/>
       <c r="C104" s="25"/>
@@ -10374,7 +10394,7 @@
       <c r="G104" s="25"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>15</v>
       </c>
@@ -10388,7 +10408,7 @@
       <c r="G105" s="25"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="14">
         <v>5</v>
       </c>
@@ -10402,7 +10422,7 @@
       <c r="G106" s="25"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="12">
         <v>10</v>
       </c>
@@ -10416,7 +10436,7 @@
       <c r="G107" s="25"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="14">
         <v>20</v>
       </c>
@@ -10429,8 +10449,11 @@
       <c r="F108" s="25"/>
       <c r="G108" s="25"/>
       <c r="H108" s="1"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="12">
         <v>50</v>
       </c>
@@ -10444,7 +10467,7 @@
       <c r="G109" s="25"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="14">
         <v>100</v>
       </c>
@@ -10458,7 +10481,7 @@
       <c r="G110" s="25"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="12">
         <v>200</v>
       </c>
@@ -10472,7 +10495,7 @@
       <c r="G111" s="25"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="28">
         <v>500</v>
       </c>
@@ -12079,10 +12102,10 @@
     </row>
     <row r="259" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A259" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B259" s="23" t="s">
         <v>23</v>
-      </c>
-      <c r="B259" s="23" t="s">
-        <v>24</v>
       </c>
       <c r="C259" s="24"/>
       <c r="D259" s="24"/>

--- a/graphics.xlsx
+++ b/graphics.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>График №1</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>каждому добавить срез</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1077,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1197,7 +1199,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1328,7 +1329,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1561,7 +1561,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1679,7 +1678,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1810,7 +1808,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2019,7 +2016,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2137,7 +2133,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2268,7 +2263,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2511,7 +2505,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2629,7 +2622,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2760,7 +2752,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2951,7 +2942,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3069,7 +3059,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3200,7 +3189,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3409,7 +3397,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3527,7 +3514,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3658,7 +3644,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3849,7 +3834,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3967,7 +3951,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9191,7 +9174,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J303"/>
+  <dimension ref="A1:K303"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
@@ -9207,7 +9190,7 @@
     <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -9225,7 +9208,7 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -9235,7 +9218,7 @@
       <c r="G2" s="25"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9249,7 +9232,7 @@
       <c r="G3" s="25"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>16</v>
       </c>
@@ -9263,7 +9246,7 @@
       <c r="G4" s="25"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>32</v>
       </c>
@@ -9280,7 +9263,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>64</v>
       </c>
@@ -9294,7 +9277,7 @@
       <c r="G6" s="25"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>128</v>
       </c>
@@ -9310,7 +9293,7 @@
       <c r="G7" s="25"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -9320,7 +9303,7 @@
       <c r="G8" s="25"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -9330,7 +9313,7 @@
       <c r="G9" s="25"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -9339,8 +9322,11 @@
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -9350,7 +9336,7 @@
       <c r="G11" s="25"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -9360,7 +9346,7 @@
       <c r="G12" s="25"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -9370,7 +9356,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -9380,7 +9366,7 @@
       <c r="G14" s="25"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -9390,7 +9376,7 @@
       <c r="G15" s="25"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
